--- a/iCelerium/Content/UploadedFolder/TestAgent.xlsx
+++ b/iCelerium/Content/UploadedFolder/TestAgent.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="7755"/>
+    <workbookView xWindow="18080" yWindow="300" windowWidth="18400" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,127 +22,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Zone</t>
   </si>
   <si>
-    <t>YONDO K. DOMINIQUE</t>
-  </si>
-  <si>
-    <t>Zone c</t>
-  </si>
-  <si>
-    <t>KUDITE KOFFI</t>
-  </si>
-  <si>
-    <t>DEGBE AGBO KOFFI</t>
-  </si>
-  <si>
-    <t>DEGBE AMELE</t>
-  </si>
-  <si>
-    <t>AZIALE AMI</t>
-  </si>
-  <si>
-    <t>DASSOU MATHIAS</t>
-  </si>
-  <si>
-    <t>BAKA MARI RENE</t>
-  </si>
-  <si>
-    <t>TCHAKASSOU KOSSI</t>
-  </si>
-  <si>
-    <t>KATASSE KOMI</t>
-  </si>
-  <si>
-    <t>KADANGA TCHILALO</t>
-  </si>
-  <si>
-    <t>KOUTINA</t>
-  </si>
-  <si>
-    <t>AZIAWONOU ABLA</t>
-  </si>
-  <si>
-    <t>AWATE VERONIQUE</t>
-  </si>
-  <si>
-    <t>AKLI ATSOU</t>
-  </si>
-  <si>
-    <t>ZOUGNEGBE KOFFI</t>
-  </si>
-  <si>
-    <t>SOAGNIN NOELLIE</t>
-  </si>
-  <si>
-    <t>NASSOMA RABISH</t>
-  </si>
-  <si>
-    <t>AZIAWONOU EDO</t>
-  </si>
-  <si>
-    <t>KATAKPE BASALINE</t>
-  </si>
-  <si>
-    <t>LAWSON AVLO</t>
-  </si>
-  <si>
-    <t>SABA GENDGBO AYAKNEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYONYO KOFFI </t>
-  </si>
-  <si>
-    <t>D'ALMEIDA WOUSSAMATOU</t>
-  </si>
-  <si>
-    <t>NOUGANOU MASSAN</t>
-  </si>
-  <si>
-    <t>AZIAKONOU AME</t>
-  </si>
-  <si>
-    <t>KOUMODJI KOFFI</t>
-  </si>
-  <si>
-    <t>ETIAM KOFFI</t>
-  </si>
-  <si>
-    <t>APETY ADJOAVI</t>
-  </si>
-  <si>
-    <t>DETOGNON ODETTE</t>
-  </si>
-  <si>
-    <t>KOLANI LAKPELIBE</t>
-  </si>
-  <si>
-    <t>BOLOU ETSE</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Telephone</t>
   </si>
   <si>
-    <t>Zone a</t>
-  </si>
-  <si>
-    <t>Zone b</t>
-  </si>
-  <si>
-    <t>Zone d</t>
+    <t>RABIOU</t>
+  </si>
+  <si>
+    <t>Zone A</t>
+  </si>
+  <si>
+    <t>NAYO</t>
+  </si>
+  <si>
+    <t>Zone B</t>
+  </si>
+  <si>
+    <t>TAKELE</t>
+  </si>
+  <si>
+    <t>ODETTE</t>
+  </si>
+  <si>
+    <t>Zone C</t>
+  </si>
+  <si>
+    <t>AJAVON</t>
+  </si>
+  <si>
+    <t>AKOESSO</t>
+  </si>
+  <si>
+    <t>Zone D</t>
+  </si>
+  <si>
+    <t>YAWA</t>
+  </si>
+  <si>
+    <t>KUDZU</t>
+  </si>
+  <si>
+    <t>Zone E</t>
+  </si>
+  <si>
+    <t>AFI</t>
+  </si>
+  <si>
+    <t>SYSLVIA</t>
+  </si>
+  <si>
+    <t>Zone F</t>
+  </si>
+  <si>
+    <t>GON</t>
+  </si>
+  <si>
+    <t>Zone G</t>
+  </si>
+  <si>
+    <t>YVES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +106,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,8 +165,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -208,7 +186,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -267,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,371 +477,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>905466874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>905466875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>905466876</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>905466877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>905466878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>905466879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>905466880</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>905466881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>905466882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>905466883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>905466884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>905466885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>905466886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>905466887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>905466888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>905466889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>905466890</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>905466891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20">
-        <v>905466892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>905466893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>905466894</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23">
-        <v>905466895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24">
-        <v>905466896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>905466897</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26">
-        <v>905466898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>905466899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>905466900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29">
-        <v>905466901</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30">
-        <v>905466902</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>905466903</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
-        <v>905466904</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/iCelerium/Content/UploadedFolder/TestAgent.xlsx
+++ b/iCelerium/Content/UploadedFolder/TestAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18080" yWindow="300" windowWidth="18400" windowHeight="7760"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Zone</t>
   </si>
@@ -39,62 +39,50 @@
     <t>Zone A</t>
   </si>
   <si>
-    <t>NAYO</t>
-  </si>
-  <si>
-    <t>Zone B</t>
-  </si>
-  <si>
-    <t>TAKELE</t>
-  </si>
-  <si>
     <t>ODETTE</t>
   </si>
   <si>
-    <t>Zone C</t>
-  </si>
-  <si>
     <t>AJAVON</t>
   </si>
   <si>
     <t>AKOESSO</t>
   </si>
   <si>
-    <t>Zone D</t>
-  </si>
-  <si>
     <t>YAWA</t>
   </si>
   <si>
     <t>KUDZU</t>
   </si>
   <si>
-    <t>Zone E</t>
-  </si>
-  <si>
-    <t>AFI</t>
-  </si>
-  <si>
-    <t>SYSLVIA</t>
-  </si>
-  <si>
-    <t>Zone F</t>
-  </si>
-  <si>
-    <t>GON</t>
-  </si>
-  <si>
-    <t>Zone G</t>
-  </si>
-  <si>
     <t>YVES</t>
+  </si>
+  <si>
+    <t>HERMANN</t>
+  </si>
+  <si>
+    <t>AHOOMEY</t>
+  </si>
+  <si>
+    <t>ELIE</t>
+  </si>
+  <si>
+    <t>SYLVIA</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>DADA</t>
+  </si>
+  <si>
+    <t>GAVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,22 +114,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,6 +148,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -182,9 +184,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -469,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -490,10 +492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -513,10 +515,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>228</v>
@@ -524,10 +526,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>228</v>
@@ -535,10 +537,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>228</v>
@@ -546,10 +548,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>228</v>
@@ -557,10 +559,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>228</v>
@@ -568,10 +570,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>228</v>
@@ -579,10 +581,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>228</v>
@@ -590,10 +592,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>228</v>
@@ -601,10 +603,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>228</v>
@@ -612,10 +614,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>228</v>
@@ -623,18 +625,39 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C13">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
